--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2447BF10-8221-42BE-8D86-9152CE2565FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -65,35 +65,82 @@
     <t>3.5h</t>
   </si>
   <si>
-    <t>Create page with information about the flu shot</t>
-  </si>
-  <si>
-    <t>Include the information provided and make sure the page is responsive to different devices while maintaning the design.</t>
-  </si>
-  <si>
-    <t>Site was ceated and made ready for User approval</t>
-  </si>
-  <si>
-    <t>New Department Conversion Pages</t>
-  </si>
-  <si>
-    <t>Migrate webpages from another depatment to the new intranet site.</t>
-  </si>
-  <si>
-    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site.</t>
-  </si>
-  <si>
     <t>8h</t>
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>Based on feedback received, implemeted changes to create a new sample page</t>
+  </si>
+  <si>
+    <t>Created a new webpage containing information requested by the users.</t>
+  </si>
+  <si>
+    <t>Modifications made for better look and feel based on feedback. Aproved and pushed to production</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User priority task:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Create page with information about the flu shot</t>
+    </r>
+  </si>
+  <si>
+    <t>Include the information and make sure the page is responsive to different devices while maintaning the design.</t>
+  </si>
+  <si>
+    <t>New Divison Conversion Pages</t>
+  </si>
+  <si>
+    <t>Migrate webpages from another depatments division to the new intranet site.</t>
+  </si>
+  <si>
+    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site. Shreadsheet created for the legacy website containing all the pages and different links</t>
+  </si>
+  <si>
+    <t>Created a simple sample page</t>
+  </si>
+  <si>
+    <t>Another page created</t>
+  </si>
+  <si>
+    <t>More pages created</t>
+  </si>
+  <si>
+    <t>Received feedback on some of the pages, implemented changes and wating for more feedback</t>
+  </si>
+  <si>
+    <t>Presented the work done until now and received feedback</t>
+  </si>
+  <si>
+    <t>Implemented changes and created the last remaining pages.</t>
+  </si>
+  <si>
+    <t>Leaning Bootstrap and testing the knowledge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,15 +222,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,11 +308,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,107 +665,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>45180</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>45182</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45183</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45184</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45187</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45188</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45189</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A4" s="3">
-        <v>45183</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A5" s="3">
-        <v>45184</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="1"/>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45190</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45191</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>45194</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45195</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>45196</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="6">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDB0822-A617-42B8-8786-29EA6AA21E0D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Leaning Bootstrap and testing the knowledge</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created 2 different POC landing pages, connected to the main website, </t>
+  </si>
+  <si>
+    <t>Researched the page and best pratices for this division</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,24 +341,27 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +688,7 @@
     <col min="1" max="1" width="31.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -753,7 +765,7 @@
       <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -764,9 +776,9 @@
       <c r="A6" s="10">
         <v>45184</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
@@ -775,8 +787,8 @@
       <c r="A7" s="12">
         <v>45187</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
@@ -788,8 +800,8 @@
       <c r="A8" s="10">
         <v>45188</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
@@ -801,8 +813,8 @@
       <c r="A9" s="10">
         <v>45189</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
@@ -814,8 +826,8 @@
       <c r="A10" s="10">
         <v>45190</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
@@ -827,8 +839,8 @@
       <c r="A11" s="10">
         <v>45191</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
@@ -840,8 +852,8 @@
       <c r="A12" s="12">
         <v>45194</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="13" t="s">
         <v>23</v>
       </c>
@@ -853,8 +865,8 @@
       <c r="A13" s="12">
         <v>45195</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="19" t="s">
         <v>24</v>
       </c>
@@ -866,9 +878,9 @@
       <c r="A14" s="12">
         <v>45196</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
@@ -888,8 +900,8 @@
       <c r="A16" s="2">
         <v>45198</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
@@ -897,14 +909,105 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>45201</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>45202</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>45204</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>45205</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>45208</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D19:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDB0822-A617-42B8-8786-29EA6AA21E0D}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E943C45-ADA3-4B08-B75E-914B07488203}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Include the information and make sure the page is responsive to different devices while maintaning the design.</t>
   </si>
   <si>
-    <t>New Divison Conversion Pages</t>
-  </si>
-  <si>
     <t>Migrate webpages from another depatments division to the new intranet site.</t>
   </si>
   <si>
@@ -143,6 +140,27 @@
   </si>
   <si>
     <t>Researched the page and best pratices for this division</t>
+  </si>
+  <si>
+    <t>Presented the work, made a few small changes, ready to be shown to the bussines owner</t>
+  </si>
+  <si>
+    <t>New information requested by the owner, made the requested changes.</t>
+  </si>
+  <si>
+    <t>Went over the whole department with supervisor, made the requested changes</t>
+  </si>
+  <si>
+    <t>Changes on the sub departments page layout made as requested, adding more content, added carusel images and content.</t>
+  </si>
+  <si>
+    <t>New Divison Conversion Pages (OpP)</t>
+  </si>
+  <si>
+    <t>New Divison Conversion Pages (BO)</t>
+  </si>
+  <si>
+    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site. Shreadsheet created for the legacy website containing all the pages and diffe</t>
   </si>
 </sst>
 </file>
@@ -182,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -290,11 +308,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,9 +332,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -317,12 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -341,12 +359,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,13 +372,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,18 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -701,7 +722,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -712,302 +733,382 @@
       <c r="A2" s="2">
         <v>45180</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45181</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>45182</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>45183</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>45184</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45187</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>45188</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>45184</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="7" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>45189</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>45190</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>45191</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>45187</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
+    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45194</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>45188</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45195</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>45189</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45196</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>45190</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>45191</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>45194</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>45195</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>45196</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>45197</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45198</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>45201</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>45204</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>45205</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>45201</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>45208</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>45202</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>45204</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>45205</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>45208</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>45209</v>
+      </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>45211</v>
+      </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>45212</v>
+      </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="21"/>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>45215</v>
+      </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="21"/>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>45216</v>
+      </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>45217</v>
+      </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
+      <c r="D27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45218</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="12">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C28"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E943C45-ADA3-4B08-B75E-914B07488203}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3782AA31-E889-424B-B028-255C7624D419}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Work done</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Modify MyWifi site and Guideline for Telework site</t>
   </si>
   <si>
@@ -60,15 +57,6 @@
   </si>
   <si>
     <t>Sites were modifed to match the new design and logo was made transparent.</t>
-  </si>
-  <si>
-    <t>3.5h</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>5h</t>
   </si>
   <si>
     <t>Based on feedback received, implemeted changes to create a new sample page</t>
@@ -127,15 +115,9 @@
     <t>Presented the work done until now and received feedback</t>
   </si>
   <si>
-    <t>Implemented changes and created the last remaining pages.</t>
-  </si>
-  <si>
     <t>Leaning Bootstrap and testing the knowledge</t>
   </si>
   <si>
-    <t>7h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Created 2 different POC landing pages, connected to the main website, </t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t>Presented the work, made a few small changes, ready to be shown to the bussines owner</t>
   </si>
   <si>
-    <t>New information requested by the owner, made the requested changes.</t>
-  </si>
-  <si>
     <t>Went over the whole department with supervisor, made the requested changes</t>
   </si>
   <si>
@@ -160,14 +139,47 @@
     <t>New Divison Conversion Pages (BO)</t>
   </si>
   <si>
-    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site. Shreadsheet created for the legacy website containing all the pages and diffe</t>
+    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site. Shreadsheet created for the legacy website containing all the pages and links. (waiting for design specifications to create POC)</t>
+  </si>
+  <si>
+    <t>New Divison Conversion Pages (DOS)</t>
+  </si>
+  <si>
+    <t>Familarized with the old website. Navigated through the content and made notes for broken links, old content or content that need to be reviewed or not included in the new site. Shreadsheet created for the legacy website containing all the pages and different links.</t>
+  </si>
+  <si>
+    <t>POC page and menu created</t>
+  </si>
+  <si>
+    <t>Time(hours)</t>
+  </si>
+  <si>
+    <t>New information requested by the owner, made the requested changes. Linked pages togethr through a top navigation menu.</t>
+  </si>
+  <si>
+    <t>Implemented changes and created the last remaining pages. Linked pages together through a top navigation menu.</t>
+  </si>
+  <si>
+    <t>More Pages created, combined them together though a top navigation menu</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Codding</t>
+  </si>
+  <si>
+    <t>Testing &amp; Debugging</t>
+  </si>
+  <si>
+    <t>Reasearch, Training,  Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +203,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -321,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -366,6 +406,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,15 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,21 +757,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,393 +783,541 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45180</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45181</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18">
+        <v>8</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45183</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45184</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45187</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E7" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>45182</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>45183</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="E9" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E10" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>45191</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>45184</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>45187</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="8" t="s">
+      <c r="E11" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>45194</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>45188</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>45189</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>45190</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>45191</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>45194</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="E12" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>45195</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>45196</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>45197</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45198</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>45201</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>45202</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45204</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>45205</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>45208</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>45211</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>45212</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>45215</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>45216</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45201</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45202</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45204</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45205</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>45208</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>45209</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45211</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45212</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>45215</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>45216</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>45217</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="E27" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>45218</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45219</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>45222</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>45225</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>45226</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E34" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>45229</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
+      <c r="E35" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>45231</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>45232</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>45233</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:C28"/>
+  <mergeCells count="19">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D19:D21"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C28"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3782AA31-E889-424B-B028-255C7624D419}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E5F4F7-789A-4339-8DDF-D16DDCCF071B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>Reasearch, Training,  Learning</t>
+  </si>
+  <si>
+    <t>MTA IT Enhancement</t>
+  </si>
+  <si>
+    <t>Enable the users to be able to add or remove information visally without having knowledge of coding.</t>
+  </si>
+  <si>
+    <t>Figured a way to allow the WordPress pages be visually edited, by modifying the existing code.</t>
+  </si>
+  <si>
+    <t>Found the pages that cannot be edited by a person without any knowledge of HTML or PHP</t>
+  </si>
+  <si>
+    <t>Converted one page, it can now be visually edited. Showed it to supervisor and aproved to move forwardfor the other pages.</t>
   </si>
 </sst>
 </file>
@@ -418,31 +433,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,15 +772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="14" customWidth="1"/>
@@ -789,10 +804,10 @@
       <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -821,10 +836,10 @@
       <c r="A3" s="2">
         <v>45181</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -833,8 +848,8 @@
       <c r="E3" s="18">
         <v>8</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -842,8 +857,8 @@
       <c r="A4" s="6">
         <v>45182</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
@@ -859,13 +874,13 @@
       <c r="A5" s="6">
         <v>45183</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="16">
@@ -876,9 +891,9 @@
       <c r="A6" s="6">
         <v>45184</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="16">
         <v>5</v>
       </c>
@@ -887,8 +902,8 @@
       <c r="A7" s="8">
         <v>45187</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -900,8 +915,8 @@
       <c r="A8" s="6">
         <v>45188</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
@@ -913,8 +928,8 @@
       <c r="A9" s="6">
         <v>45189</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
@@ -926,8 +941,8 @@
       <c r="A10" s="6">
         <v>45190</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
@@ -939,8 +954,8 @@
       <c r="A11" s="6">
         <v>45191</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
@@ -952,8 +967,8 @@
       <c r="A12" s="8">
         <v>45194</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
@@ -965,9 +980,9 @@
       <c r="A13" s="8">
         <v>45195</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="18">
@@ -978,9 +993,9 @@
       <c r="A14" s="8">
         <v>45196</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="18">
         <v>3.5</v>
       </c>
@@ -989,9 +1004,9 @@
       <c r="A15" s="11">
         <v>45197</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="18">
         <v>8</v>
       </c>
@@ -1013,13 +1028,13 @@
       <c r="A17" s="8">
         <v>45201</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="16">
@@ -1030,9 +1045,9 @@
       <c r="A18" s="8">
         <v>45202</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="16">
         <v>7</v>
       </c>
@@ -1041,9 +1056,9 @@
       <c r="A19" s="8">
         <v>45204</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="21" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="18">
@@ -1054,9 +1069,9 @@
       <c r="A20" s="8">
         <v>45205</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="18">
         <v>5</v>
       </c>
@@ -1065,9 +1080,9 @@
       <c r="A21" s="8">
         <v>45208</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="18">
         <v>8</v>
       </c>
@@ -1076,8 +1091,8 @@
       <c r="A22" s="6">
         <v>45209</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1089,9 +1104,9 @@
       <c r="A23" s="8">
         <v>45211</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="21" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="18">
@@ -1102,9 +1117,9 @@
       <c r="A24" s="8">
         <v>45212</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="18">
         <v>5</v>
       </c>
@@ -1113,9 +1128,9 @@
       <c r="A25" s="8">
         <v>45215</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="18">
         <v>3.5</v>
       </c>
@@ -1124,8 +1139,8 @@
       <c r="A26" s="6">
         <v>45216</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -1137,9 +1152,9 @@
       <c r="A27" s="6">
         <v>45217</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="18">
@@ -1150,9 +1165,9 @@
       <c r="A28" s="8">
         <v>45218</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="18">
         <v>8</v>
       </c>
@@ -1161,13 +1176,13 @@
       <c r="A29" s="2">
         <v>45219</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="16">
@@ -1178,9 +1193,9 @@
       <c r="A30" s="11">
         <v>45222</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="16">
         <v>8</v>
       </c>
@@ -1189,13 +1204,13 @@
       <c r="A31" s="2">
         <v>45223</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="16">
@@ -1207,9 +1222,9 @@
       <c r="A32" s="2">
         <v>45224</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="16">
         <v>3.5</v>
       </c>
@@ -1218,8 +1233,8 @@
       <c r="A33" s="11">
         <v>45225</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -1231,8 +1246,8 @@
       <c r="A34" s="11">
         <v>45226</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1244,9 +1259,9 @@
       <c r="A35" s="11">
         <v>45229</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="18">
@@ -1257,9 +1272,9 @@
       <c r="A36" s="11">
         <v>45230</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="18">
         <v>8</v>
       </c>
@@ -1268,9 +1283,9 @@
       <c r="A37" s="11">
         <v>45231</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="18">
         <v>3.5</v>
       </c>
@@ -1279,9 +1294,9 @@
       <c r="A38" s="11">
         <v>45232</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="18">
         <v>8</v>
       </c>
@@ -1290,21 +1305,75 @@
       <c r="A39" s="11">
         <v>45233</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="18">
         <v>5</v>
       </c>
     </row>
+    <row r="40" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="18">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="D13:D15"/>
+  <mergeCells count="22">
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D41:D42"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D31:D32"/>
@@ -1315,9 +1384,12 @@
     <mergeCell ref="B17:B28"/>
     <mergeCell ref="C17:C28"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E5F4F7-789A-4339-8DDF-D16DDCCF071B}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4651E3F-074A-4BC7-A23F-59CD23320522}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -187,7 +187,19 @@
     <t>Found the pages that cannot be edited by a person without any knowledge of HTML or PHP</t>
   </si>
   <si>
-    <t>Converted one page, it can now be visually edited. Showed it to supervisor and aproved to move forwardfor the other pages.</t>
+    <t>Went over the subdivisions of DOS and decided what to include and what not to incule in the migration.</t>
+  </si>
+  <si>
+    <t>Converted one page, it can now be visually edited. Showed it to supervisor and aproved to move forward for the other pages.</t>
+  </si>
+  <si>
+    <t>Fixed some broken links</t>
+  </si>
+  <si>
+    <t>New top naviagtion menus created and modified existing ones. Created POC page with multiple  sub-pages and presented it to supervisor.</t>
+  </si>
+  <si>
+    <t>Created more pages and did small modifications to some of the existing ones.</t>
   </si>
 </sst>
 </file>
@@ -440,19 +452,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -772,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +848,10 @@
       <c r="A3" s="2">
         <v>45181</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -857,8 +869,8 @@
       <c r="A4" s="6">
         <v>45182</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
@@ -874,13 +886,13 @@
       <c r="A5" s="6">
         <v>45183</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="16">
@@ -891,9 +903,9 @@
       <c r="A6" s="6">
         <v>45184</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="16">
         <v>5</v>
       </c>
@@ -902,8 +914,8 @@
       <c r="A7" s="8">
         <v>45187</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -915,8 +927,8 @@
       <c r="A8" s="6">
         <v>45188</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
@@ -928,8 +940,8 @@
       <c r="A9" s="6">
         <v>45189</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
@@ -941,8 +953,8 @@
       <c r="A10" s="6">
         <v>45190</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
@@ -954,8 +966,8 @@
       <c r="A11" s="6">
         <v>45191</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
@@ -967,8 +979,8 @@
       <c r="A12" s="8">
         <v>45194</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
@@ -980,9 +992,9 @@
       <c r="A13" s="8">
         <v>45195</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="18">
@@ -993,9 +1005,9 @@
       <c r="A14" s="8">
         <v>45196</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="18">
         <v>3.5</v>
       </c>
@@ -1004,9 +1016,9 @@
       <c r="A15" s="11">
         <v>45197</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="18">
         <v>8</v>
       </c>
@@ -1028,13 +1040,13 @@
       <c r="A17" s="8">
         <v>45201</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="16">
@@ -1045,9 +1057,9 @@
       <c r="A18" s="8">
         <v>45202</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="16">
         <v>7</v>
       </c>
@@ -1056,9 +1068,9 @@
       <c r="A19" s="8">
         <v>45204</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="18">
@@ -1069,8 +1081,8 @@
       <c r="A20" s="8">
         <v>45205</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="29"/>
       <c r="E20" s="18">
         <v>5</v>
@@ -1080,9 +1092,9 @@
       <c r="A21" s="8">
         <v>45208</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="18">
         <v>8</v>
       </c>
@@ -1091,8 +1103,8 @@
       <c r="A22" s="6">
         <v>45209</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1104,9 +1116,9 @@
       <c r="A23" s="8">
         <v>45211</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="18">
@@ -1117,8 +1129,8 @@
       <c r="A24" s="8">
         <v>45212</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="18">
         <v>5</v>
@@ -1128,8 +1140,8 @@
       <c r="A25" s="8">
         <v>45215</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="18">
         <v>3.5</v>
@@ -1139,8 +1151,8 @@
       <c r="A26" s="6">
         <v>45216</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -1152,9 +1164,9 @@
       <c r="A27" s="6">
         <v>45217</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="26" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="18">
@@ -1165,9 +1177,9 @@
       <c r="A28" s="8">
         <v>45218</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18">
         <v>8</v>
       </c>
@@ -1176,13 +1188,13 @@
       <c r="A29" s="2">
         <v>45219</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="16">
@@ -1193,9 +1205,9 @@
       <c r="A30" s="11">
         <v>45222</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="16">
         <v>8</v>
       </c>
@@ -1204,13 +1216,13 @@
       <c r="A31" s="2">
         <v>45223</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="16">
@@ -1222,9 +1234,9 @@
       <c r="A32" s="2">
         <v>45224</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="16">
         <v>3.5</v>
       </c>
@@ -1233,8 +1245,8 @@
       <c r="A33" s="11">
         <v>45225</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -1246,8 +1258,8 @@
       <c r="A34" s="11">
         <v>45226</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1259,9 +1271,9 @@
       <c r="A35" s="11">
         <v>45229</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="26" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="18">
@@ -1272,9 +1284,9 @@
       <c r="A36" s="11">
         <v>45230</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="18">
         <v>8</v>
       </c>
@@ -1283,9 +1295,9 @@
       <c r="A37" s="11">
         <v>45231</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="18">
         <v>3.5</v>
       </c>
@@ -1294,9 +1306,9 @@
       <c r="A38" s="11">
         <v>45232</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="18">
         <v>8</v>
       </c>
@@ -1305,9 +1317,9 @@
       <c r="A39" s="11">
         <v>45233</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="18">
         <v>5</v>
       </c>
@@ -1316,10 +1328,10 @@
       <c r="A40" s="2">
         <v>45236</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1333,9 +1345,9 @@
       <c r="A41" s="2">
         <v>45237</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="26" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="18">
@@ -1346,9 +1358,9 @@
       <c r="A42" s="2">
         <v>45238</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="16">
         <v>3.5</v>
       </c>
@@ -1357,23 +1369,144 @@
       <c r="A43" s="2">
         <v>45239</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>45243</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>45244</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E45" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>45245</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45246</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>45247</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>45250</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>45251</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>45252</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>45257</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="18">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D35:D39"/>
+  <mergeCells count="27">
+    <mergeCell ref="D50:D52"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="C31:C39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D31:D32"/>
@@ -1384,12 +1517,7 @@
     <mergeCell ref="B17:B28"/>
     <mergeCell ref="C17:C28"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D35:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nymta-my.sharepoint.com/personal/dorjan_mujollari_mtahq_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rido-\Documents\GitHub\Intranet_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{E0FA940B-B322-4C5B-921C-AA9B8748EC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4651E3F-074A-4BC7-A23F-59CD23320522}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{890DB1AF-35D2-4518-BB98-C41EF28E8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A880D0-B361-4B8F-90B7-862FAE06626B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Work done</t>
   </si>
   <si>
+    <t>Time(hours)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
     <t>Modify MyWifi site and Guideline for Telework site</t>
   </si>
   <si>
@@ -59,13 +65,7 @@
     <t>Sites were modifed to match the new design and logo was made transparent.</t>
   </si>
   <si>
-    <t>Based on feedback received, implemeted changes to create a new sample page</t>
-  </si>
-  <si>
-    <t>Created a new webpage containing information requested by the users.</t>
-  </si>
-  <si>
-    <t>Modifications made for better look and feel based on feedback. Aproved and pushed to production</t>
+    <t>Codding</t>
   </si>
   <si>
     <r>
@@ -94,6 +94,21 @@
     <t>Include the information and make sure the page is responsive to different devices while maintaning the design.</t>
   </si>
   <si>
+    <t>Created a new webpage containing information requested by the users.</t>
+  </si>
+  <si>
+    <t>Testing &amp; Debugging</t>
+  </si>
+  <si>
+    <t>Modifications made for better look and feel based on feedback. Aproved and pushed to production</t>
+  </si>
+  <si>
+    <t>Reasearch, Training,  Learning</t>
+  </si>
+  <si>
+    <t>New Divison Conversion Pages (OpP)</t>
+  </si>
+  <si>
     <t>Migrate webpages from another depatments division to the new intranet site.</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t>Created a simple sample page</t>
   </si>
   <si>
+    <t>Based on feedback received, implemeted changes to create a new sample page</t>
+  </si>
+  <si>
     <t>Another page created</t>
   </si>
   <si>
@@ -115,27 +133,30 @@
     <t>Presented the work done until now and received feedback</t>
   </si>
   <si>
+    <t>Implemented changes and created the last remaining pages. Linked pages together through a top navigation menu.</t>
+  </si>
+  <si>
     <t>Leaning Bootstrap and testing the knowledge</t>
   </si>
   <si>
+    <t>Researched the page and best pratices for this division</t>
+  </si>
+  <si>
     <t xml:space="preserve">Created 2 different POC landing pages, connected to the main website, </t>
   </si>
   <si>
-    <t>Researched the page and best pratices for this division</t>
-  </si>
-  <si>
     <t>Presented the work, made a few small changes, ready to be shown to the bussines owner</t>
   </si>
   <si>
+    <t>New information requested by the owner, made the requested changes. Linked pages togethr through a top navigation menu.</t>
+  </si>
+  <si>
     <t>Went over the whole department with supervisor, made the requested changes</t>
   </si>
   <si>
     <t>Changes on the sub departments page layout made as requested, adding more content, added carusel images and content.</t>
   </si>
   <si>
-    <t>New Divison Conversion Pages (OpP)</t>
-  </si>
-  <si>
     <t>New Divison Conversion Pages (BO)</t>
   </si>
   <si>
@@ -151,55 +172,58 @@
     <t>POC page and menu created</t>
   </si>
   <si>
-    <t>Time(hours)</t>
-  </si>
-  <si>
-    <t>New information requested by the owner, made the requested changes. Linked pages togethr through a top navigation menu.</t>
-  </si>
-  <si>
-    <t>Implemented changes and created the last remaining pages. Linked pages together through a top navigation menu.</t>
-  </si>
-  <si>
     <t>More Pages created, combined them together though a top navigation menu</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Codding</t>
-  </si>
-  <si>
-    <t>Testing &amp; Debugging</t>
-  </si>
-  <si>
-    <t>Reasearch, Training,  Learning</t>
-  </si>
-  <si>
     <t>MTA IT Enhancement</t>
   </si>
   <si>
     <t>Enable the users to be able to add or remove information visally without having knowledge of coding.</t>
   </si>
   <si>
+    <t>Found the pages that cannot be edited by a person without any knowledge of HTML or PHP</t>
+  </si>
+  <si>
     <t>Figured a way to allow the WordPress pages be visually edited, by modifying the existing code.</t>
   </si>
   <si>
-    <t>Found the pages that cannot be edited by a person without any knowledge of HTML or PHP</t>
+    <t>Converted one page, it can now be visually edited. Showed it to supervisor and aproved to move forward for the other pages.</t>
+  </si>
+  <si>
+    <t>Fixed some broken links</t>
   </si>
   <si>
     <t>Went over the subdivisions of DOS and decided what to include and what not to incule in the migration.</t>
   </si>
   <si>
-    <t>Converted one page, it can now be visually edited. Showed it to supervisor and aproved to move forward for the other pages.</t>
-  </si>
-  <si>
-    <t>Fixed some broken links</t>
-  </si>
-  <si>
     <t>New top naviagtion menus created and modified existing ones. Created POC page with multiple  sub-pages and presented it to supervisor.</t>
   </si>
   <si>
     <t>Created more pages and did small modifications to some of the existing ones.</t>
+  </si>
+  <si>
+    <t>More Pages created. Connected the existing pages through a menu and navigation links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last pages created and linked with the rest. </t>
+  </si>
+  <si>
+    <t>Additional Forms Page Created</t>
+  </si>
+  <si>
+    <t>Created new menu and some some pages for SD</t>
+  </si>
+  <si>
+    <t>More pages Created for SD</t>
+  </si>
+  <si>
+    <t>More pages created for SD and added to the menu along with the previous ones created.</t>
+  </si>
+  <si>
+    <t>Meeting with supervisor, Explained to (IT C) bussines users how they can edit or create new content for to their sites. How to add text, images, videos, buttons, tables, links, format and many more. How to use Elementor to layout the page how they want it using our custom made templates and menu. How to add items to the menu and change it around. All without haveing any knowledge of coding.</t>
+  </si>
+  <si>
+    <t>Went though the whole site of SD subdivision of DOS. Familarized myself with the pages and how to implement current design to the legacy pages.</t>
   </si>
 </sst>
 </file>
@@ -391,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,9 +441,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -427,7 +448,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,7 +465,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +472,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,14 +490,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +557,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -634,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,18 +813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D35DEF-D929-4362-ADF9-9ED6B03F5F4C}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
@@ -810,16 +839,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -828,74 +857,74 @@
         <v>45180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="14" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45181</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="18">
-        <v>8</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="17">
+        <v>8</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45182</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45183</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="B5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="15">
         <v>8</v>
       </c>
     </row>
@@ -903,10 +932,10 @@
       <c r="A6" s="6">
         <v>45184</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="16">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="15">
         <v>5</v>
       </c>
     </row>
@@ -914,12 +943,12 @@
       <c r="A7" s="8">
         <v>45187</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18">
+        <v>19</v>
+      </c>
+      <c r="E7" s="17">
         <v>3.5</v>
       </c>
     </row>
@@ -927,12 +956,12 @@
       <c r="A8" s="6">
         <v>45188</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="17">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16">
         <v>8</v>
       </c>
     </row>
@@ -940,12 +969,12 @@
       <c r="A9" s="6">
         <v>45189</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="18">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17">
         <v>3.5</v>
       </c>
     </row>
@@ -953,12 +982,12 @@
       <c r="A10" s="6">
         <v>45190</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="18">
+        <v>22</v>
+      </c>
+      <c r="E10" s="17">
         <v>8</v>
       </c>
     </row>
@@ -966,12 +995,12 @@
       <c r="A11" s="6">
         <v>45191</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="16">
         <v>5</v>
       </c>
     </row>
@@ -979,10 +1008,10 @@
       <c r="A12" s="8">
         <v>45194</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <v>3.5</v>
@@ -992,12 +1021,12 @@
       <c r="A13" s="8">
         <v>45195</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17">
         <v>8</v>
       </c>
     </row>
@@ -1005,21 +1034,21 @@
       <c r="A14" s="8">
         <v>45196</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="18">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>45197</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="18">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="17">
         <v>8</v>
       </c>
     </row>
@@ -1027,300 +1056,299 @@
       <c r="A16" s="2">
         <v>45198</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="16">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>45201</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>45202</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="16">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>45204</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>45205</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="18">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>45208</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>45209</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E22" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>45211</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>45212</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="18">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>45215</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>45216</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>45217</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>45218</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45219</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="B29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>45222</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45223</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45224</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="16">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>45225</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="18">
+        <v>37</v>
+      </c>
+      <c r="E33" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>45226</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="18">
+        <v>22</v>
+      </c>
+      <c r="E34" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>45229</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="18">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>45230</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="18">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>45231</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="18">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>45232</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="18">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>45233</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="18">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="17">
         <v>5</v>
       </c>
     </row>
@@ -1328,16 +1356,16 @@
       <c r="A40" s="2">
         <v>45236</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="16">
+        <v>41</v>
+      </c>
+      <c r="E40" s="15">
         <v>3.5</v>
       </c>
     </row>
@@ -1345,12 +1373,12 @@
       <c r="A41" s="2">
         <v>45237</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="17">
         <v>8</v>
       </c>
     </row>
@@ -1358,10 +1386,10 @@
       <c r="A42" s="2">
         <v>45238</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="16">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="15">
         <v>3.5</v>
       </c>
     </row>
@@ -1369,157 +1397,580 @@
       <c r="A43" s="2">
         <v>45239</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>45243</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>45243</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>45244</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="17">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>45244</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="8">
         <v>45245</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="16">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="15">
         <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="8">
         <v>45246</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="24" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="8">
         <v>45247</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="18">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="8">
         <v>45250</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="18">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="8">
         <v>45251</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="8">
         <v>45252</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="18">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="8">
         <v>45257</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="18">
-        <v>8</v>
+      <c r="D52" s="24"/>
+      <c r="E52" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>45258</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>45259</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>45260</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>45261</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>45264</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>45265</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45267</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>45268</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="28">
+        <v>45271</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>45272</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>45273</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="17">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="31">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="C17:C28"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="C31:C39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="C17:C28"/>
-    <mergeCell ref="D19:D21"/>
     <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B44:B64"/>
+    <mergeCell ref="C44:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003951E811B3A4A5478ACF3860F484D13A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="047fa38a9be93c1e0394fed1e759b9d9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e38c0a4d-35bd-4fc3-9124-c2bbbec886af" xmlns:ns4="c7db2a75-db20-47da-946b-01dc5d395432" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80df722c0d516d7f78c4a457a5ed0fd7" ns3:_="" ns4:_="">
+    <xsd:import namespace="e38c0a4d-35bd-4fc3-9124-c2bbbec886af"/>
+    <xsd:import namespace="c7db2a75-db20-47da-946b-01dc5d395432"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e38c0a4d-35bd-4fc3-9124-c2bbbec886af" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="20" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7db2a75-db20-47da-946b-01dc5d395432" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="10" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="11" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e38c0a4d-35bd-4fc3-9124-c2bbbec886af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA13268-8410-4C22-95D7-06A5186B5DDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e38c0a4d-35bd-4fc3-9124-c2bbbec886af"/>
+    <ds:schemaRef ds:uri="c7db2a75-db20-47da-946b-01dc5d395432"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABFEC6AE-E468-4D61-95F1-0DC5CF0ABCFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EA96CB-B8FC-4AE6-A703-3F2AD35597E5}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>